--- a/prompt_list/1. ChatGPT_반병현_BOOKK_2023.xlsx
+++ b/prompt_list/1. ChatGPT_반병현_BOOKK_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\needl\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\needl\Desktop\새 폴더\prompt_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33BA22-74C3-4ABF-8CB8-473A5D1E6C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2577400-70F6-4B7F-B3AD-EA6EA983E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="700" windowWidth="19200" windowHeight="9953" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="2173" windowWidth="19200" windowHeight="9954" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>ChatGPT</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -165,6 +165,27 @@
   </si>
   <si>
     <t>philosophy</t>
+  </si>
+  <si>
+    <t>한 줄 코멘트</t>
+  </si>
+  <si>
+    <t>참조 하이퍼링크</t>
+  </si>
+  <si>
+    <t>스크린샷</t>
+  </si>
+  <si>
+    <t>철학 관련 대담</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대담의 깊이를 위한 프롬프트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suomi.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -200,15 +221,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="나눔명조"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -236,15 +256,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -531,7 +560,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -539,7 +568,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1">
@@ -547,7 +576,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -555,7 +584,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -563,7 +592,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -571,7 +600,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -579,7 +608,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -587,7 +616,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -607,201 +636,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA7F735-2CFC-4D4B-8891-8E372EB21605}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="255.609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="132.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.0546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="24.7" x14ac:dyDescent="0.65">
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="30.7" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="30.7" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="24.7" x14ac:dyDescent="0.65">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="46" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="100" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="30.7" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
